--- a/data/trans_orig/IP05A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP05A07-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0C2DDC4-649C-4E14-BC52-D24C5C649CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07565F35-C4EA-496E-91A5-186237091C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B2E8711E-E261-4B5C-A090-0DB47C46E971}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93B8A2DB-6BF3-4E92-BB76-B36366781DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="451">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -76,28 +76,28 @@
     <t>79,54%</t>
   </si>
   <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>80,41%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,28 +106,28 @@
     <t>20,46%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -151,1264 +151,1246 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>62,55%</t>
   </si>
   <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
   </si>
   <si>
     <t>63,62%</t>
   </si>
   <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
     <t>55,52%</t>
   </si>
   <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>10,63%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2015 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>7,6%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00877EA9-1C0F-4267-A0EC-E4E9D56961E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C1EB05-406E-40B7-B7BA-8F7B9C819F62}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2476,10 +2458,10 @@
         <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -2488,13 +2470,13 @@
         <v>36219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,7 +2532,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2562,13 +2544,13 @@
         <v>87708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -2577,13 +2559,13 @@
         <v>90715</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>277</v>
@@ -2592,13 +2574,13 @@
         <v>178424</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,13 +2595,13 @@
         <v>56611</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -2628,13 +2610,13 @@
         <v>45338</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -2643,13 +2625,13 @@
         <v>101949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2646,13 @@
         <v>22273</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -2679,13 +2661,13 @@
         <v>18696</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -2694,13 +2676,13 @@
         <v>40969</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,7 +2738,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2768,13 +2750,13 @@
         <v>85337</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>110</v>
@@ -2783,13 +2765,13 @@
         <v>84101</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>226</v>
@@ -2798,13 +2780,13 @@
         <v>169438</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,13 +2801,13 @@
         <v>76712</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>109</v>
@@ -2834,13 +2816,13 @@
         <v>81953</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>212</v>
@@ -2849,13 +2831,13 @@
         <v>158666</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2852,13 @@
         <v>46347</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -2885,13 +2867,13 @@
         <v>43477</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>119</v>
@@ -2900,13 +2882,13 @@
         <v>89824</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2956,13 @@
         <v>396627</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>553</v>
@@ -2989,13 +2971,13 @@
         <v>381050</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>1124</v>
@@ -3004,13 +2986,13 @@
         <v>777677</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3007,13 @@
         <v>260952</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>348</v>
@@ -3040,13 +3022,13 @@
         <v>242657</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>715</v>
@@ -3055,13 +3037,13 @@
         <v>503609</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3058,13 @@
         <v>95928</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -3091,7 +3073,7 @@
         <v>86289</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>169</v>
@@ -3189,7 +3171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DF6BA2-BC62-4EAE-B8A0-FE412A2CB053}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9ADBF7F-864A-48E6-BE40-C9DA0263F4B0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3379,13 +3361,13 @@
         <v>657</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3394,13 +3376,13 @@
         <v>657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,7 +3624,7 @@
         <v>209</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3651,13 +3633,13 @@
         <v>4884</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3707,13 @@
         <v>157647</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>221</v>
@@ -3740,13 +3722,13 @@
         <v>136707</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>454</v>
@@ -3755,13 +3737,13 @@
         <v>294354</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3758,13 @@
         <v>49172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -3791,13 +3773,13 @@
         <v>58384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M13" s="7">
         <v>167</v>
@@ -3806,13 +3788,13 @@
         <v>107556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3809,13 @@
         <v>17540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -3842,13 +3824,13 @@
         <v>11613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -3857,13 +3839,13 @@
         <v>29153</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,7 +3901,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3931,13 +3913,13 @@
         <v>97361</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>156</v>
@@ -3946,10 +3928,10 @@
         <v>91694</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>245</v>
@@ -4003,7 +3985,7 @@
         <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -4012,13 +3994,13 @@
         <v>87475</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4015,13 @@
         <v>25735</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -4048,13 +4030,13 @@
         <v>19834</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -4063,13 +4045,13 @@
         <v>45570</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,7 +4107,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4137,13 +4119,13 @@
         <v>110984</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>156</v>
@@ -4152,13 +4134,13 @@
         <v>116286</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>311</v>
@@ -4167,13 +4149,13 @@
         <v>227269</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4170,13 @@
         <v>63523</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -4203,13 +4185,13 @@
         <v>58595</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>281</v>
+        <v>160</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -4218,13 +4200,13 @@
         <v>122118</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4221,13 @@
         <v>31229</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -4254,13 +4236,13 @@
         <v>31372</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -4269,13 +4251,13 @@
         <v>62602</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4325,13 @@
         <v>493486</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H24" s="7">
         <v>693</v>
@@ -4358,13 +4340,13 @@
         <v>459140</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M24" s="7">
         <v>1394</v>
@@ -4373,13 +4355,13 @@
         <v>952627</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4376,13 @@
         <v>173441</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>303</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>268</v>
@@ -4409,13 +4391,13 @@
         <v>177979</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M25" s="7">
         <v>519</v>
@@ -4424,13 +4406,13 @@
         <v>351421</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4427,13 @@
         <v>77239</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -4460,13 +4442,13 @@
         <v>64969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M26" s="7">
         <v>209</v>
@@ -4475,13 +4457,13 @@
         <v>142208</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4BA561-BE5D-4218-B543-8DBEE38A55D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C2B950-08F8-4C4E-AA6C-5B418A0DD08C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4575,7 +4557,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4685,7 +4667,7 @@
         <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -4700,7 +4682,7 @@
         <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -4715,7 +4697,7 @@
         <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -4739,7 +4721,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4769,7 +4751,7 @@
         <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,7 +4772,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4820,7 +4802,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4870,13 @@
         <v>104948</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>151</v>
@@ -4903,13 +4885,13 @@
         <v>92472</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M8" s="7">
         <v>289</v>
@@ -4918,13 +4900,13 @@
         <v>197419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4921,13 @@
         <v>6479</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4954,13 +4936,13 @@
         <v>9331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -4969,13 +4951,13 @@
         <v>15811</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +4972,13 @@
         <v>3169</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5005,13 +4987,13 @@
         <v>2091</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5020,13 +5002,13 @@
         <v>5260</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5076,13 @@
         <v>209840</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H12" s="7">
         <v>219</v>
@@ -5109,13 +5091,13 @@
         <v>151915</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M12" s="7">
         <v>506</v>
@@ -5124,13 +5106,13 @@
         <v>361755</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5127,13 @@
         <v>26841</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -5160,13 +5142,13 @@
         <v>23082</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -5175,13 +5157,13 @@
         <v>49923</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5178,13 @@
         <v>13504</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -5211,13 +5193,13 @@
         <v>17355</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -5226,13 +5208,13 @@
         <v>30859</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,7 +5270,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5300,13 +5282,13 @@
         <v>126059</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>184</v>
@@ -5315,13 +5297,13 @@
         <v>130784</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>351</v>
@@ -5330,13 +5312,13 @@
         <v>256843</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5333,13 @@
         <v>34232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -5366,13 +5348,13 @@
         <v>28196</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -5381,13 +5363,13 @@
         <v>62428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5384,13 @@
         <v>12917</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -5417,13 +5399,13 @@
         <v>9755</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>402</v>
+        <v>311</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -5432,13 +5414,13 @@
         <v>22672</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>404</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,7 +5476,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5506,13 +5488,13 @@
         <v>98530</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -5521,13 +5503,13 @@
         <v>99072</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
         <v>277</v>
@@ -5536,13 +5518,13 @@
         <v>197601</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5539,13 @@
         <v>39206</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H21" s="7">
         <v>62</v>
@@ -5572,13 +5554,13 @@
         <v>45622</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M21" s="7">
         <v>114</v>
@@ -5587,13 +5569,13 @@
         <v>84828</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5590,13 @@
         <v>36378</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -5623,13 +5605,13 @@
         <v>26078</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -5638,13 +5620,13 @@
         <v>62456</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5694,13 @@
         <v>552075</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H24" s="7">
         <v>722</v>
@@ -5727,13 +5709,13 @@
         <v>491030</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M24" s="7">
         <v>1470</v>
@@ -5742,13 +5724,13 @@
         <v>1043105</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5745,13 @@
         <v>106759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>310</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>140</v>
@@ -5778,13 +5760,13 @@
         <v>106231</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>281</v>
@@ -5793,13 +5775,13 @@
         <v>212990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5796,13 @@
         <v>65968</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>366</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>80</v>
@@ -5829,13 +5811,13 @@
         <v>55280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>167</v>
@@ -5844,13 +5826,13 @@
         <v>121248</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>61</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
